--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1411202.493589643</v>
+        <v>1405806.238772435</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17544276.6189227</v>
+        <v>17544276.61892269</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9438528.731709808</v>
+        <v>9438528.731709803</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.7602787893053</v>
+        <v>177.1925632899051</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>341.7602787893053</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.02245355762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -1457,19 +1457,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>84.33322016397084</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4822098874773</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.83265249626989</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S13" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U13" t="n">
-        <v>83.65169726363742</v>
+        <v>43.94429210825421</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>341.7602787893055</v>
       </c>
       <c r="C14" t="n">
-        <v>248.655560757978</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>52.36689279964234</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>186.1713860068065</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>117.6852892315554</v>
       </c>
       <c r="H15" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U15" t="n">
-        <v>201.2795070261022</v>
+        <v>143.0850673526134</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>139.5082489576316</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S16" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T16" t="n">
-        <v>149.4122750761146</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U16" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>229.5594560895479</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>341.7602787893055</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>341.7602787893055</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36.99450227681577</v>
       </c>
       <c r="G17" t="n">
         <v>341.7602787893055</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I17" t="n">
-        <v>52.36689279964234</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T17" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>37.38859333073415</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>117.6852892315554</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V18" t="n">
-        <v>23.51557467407459</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>39.8807183587013</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>155.7048643319656</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>341.7602787893055</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="E20" t="n">
-        <v>341.7602787893055</v>
+        <v>301.0224535576203</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>89.36139507645805</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>50.31813921006369</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>76.07674487096699</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U21" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>39.39688359242513</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1567118763024</v>
+        <v>158.0452090543628</v>
       </c>
       <c r="U22" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>8.753433647736928</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>303.2022514635529</v>
+        <v>103.3935513065429</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I23" t="n">
-        <v>52.36689279964234</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556999</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>117.6852892315554</v>
@@ -2453,7 +2453,7 @@
         <v>170.4822098874772</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8852796172697</v>
+        <v>207.8852796172696</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2481,22 +2481,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>49.17151858353137</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10.9523627032422</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>223.0443259318729</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>88.3283468913573</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965522</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -2654,7 +2654,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I27" t="n">
-        <v>8.475159690333328</v>
+        <v>8.475159690333783</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T28" t="n">
         <v>229.1567118763024</v>
@@ -2772,16 +2772,16 @@
         <v>282.530721081746</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>244.5055911641583</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.45391395699954</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>286.9146924622937</v>
       </c>
       <c r="H29" t="n">
-        <v>197.7543652634482</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T29" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0196767335278</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802216</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -2927,7 +2927,7 @@
         <v>170.4822098874772</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8852796172697</v>
+        <v>207.8852796172699</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -2952,19 +2952,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>58.43616357337925</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>83.66403705289278</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>406.8370587541321</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.36689279964234</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>51.99724580076621</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>280.8347990312154</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>170.4822098874772</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8852796172696</v>
+        <v>207.8852796172699</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5873294507275</v>
+        <v>22.59533553367588</v>
       </c>
       <c r="H34" t="n">
         <v>145.1734758482728</v>
@@ -3240,10 +3240,10 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U34" t="n">
-        <v>261.3263440922981</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>301.0224535576203</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>316.2706063149501</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,19 +3353,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>4.881368955670954</v>
       </c>
       <c r="G36" t="n">
-        <v>80.21203515390901</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H36" t="n">
         <v>76.07674487096699</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>170.4822098874772</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.5699186204507</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.117689934953614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U37" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>301.0224535576203</v>
       </c>
       <c r="F38" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>301.0224535576205</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>128.5220165423307</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.44889671279022</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H39" t="n">
         <v>76.07674487096699</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3647,7 +3647,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>96.43802386834365</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3675,13 +3675,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>172.4310611000154</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="G41" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>48.00277682409246</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>301.0224535576205</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -3830,16 +3830,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>99.08905849460436</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>100.990522720829</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>39.05968819712426</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>47.05315730400253</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>316.27060631495</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.6610584811623</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>89.36139507645805</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>55.56545283166343</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -4109,22 +4109,22 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>39.52008837090377</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U46" t="n">
-        <v>146.5102420792607</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>27.9050011957211</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.5532251206245</v>
+        <v>1072.047548651445</v>
       </c>
       <c r="C11" t="n">
-        <v>372.5532251206245</v>
+        <v>1072.047548651445</v>
       </c>
       <c r="D11" t="n">
-        <v>372.5532251206245</v>
+        <v>1072.047548651445</v>
       </c>
       <c r="E11" t="n">
-        <v>27.34082230314442</v>
+        <v>1072.047548651445</v>
       </c>
       <c r="F11" t="n">
-        <v>27.34082230314442</v>
+        <v>726.8351458339648</v>
       </c>
       <c r="G11" t="n">
-        <v>27.34082230314442</v>
+        <v>381.6227430164846</v>
       </c>
       <c r="H11" t="n">
-        <v>27.34082230314442</v>
+        <v>80.2366736159145</v>
       </c>
       <c r="I11" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J11" t="n">
-        <v>95.19447492671543</v>
+        <v>95.19447492671566</v>
       </c>
       <c r="K11" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244283</v>
       </c>
       <c r="L11" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462642</v>
       </c>
       <c r="M11" t="n">
-        <v>654.1109890220057</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N11" t="n">
-        <v>894.0620030861664</v>
+        <v>894.0620030861669</v>
       </c>
       <c r="O11" t="n">
         <v>1111.973021646433</v>
       </c>
       <c r="P11" t="n">
-        <v>1275.529383879705</v>
+        <v>1275.529383879706</v>
       </c>
       <c r="Q11" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R11" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S11" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T11" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="U11" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="V11" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="W11" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="X11" t="n">
-        <v>1021.828712339741</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="Y11" t="n">
-        <v>717.7656279381047</v>
+        <v>1251.029935812966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>441.0765936024131</v>
+        <v>520.7038878850665</v>
       </c>
       <c r="C12" t="n">
-        <v>290.4223631625053</v>
+        <v>370.0496574451587</v>
       </c>
       <c r="D12" t="n">
-        <v>160.3333957839857</v>
+        <v>239.960690066639</v>
       </c>
       <c r="E12" t="n">
-        <v>160.3333957839857</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="F12" t="n">
-        <v>35.90158966711751</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="G12" t="n">
         <v>35.90158966711751</v>
@@ -5117,55 +5117,55 @@
         <v>35.90158966711751</v>
       </c>
       <c r="I12" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J12" t="n">
-        <v>250.2573874193691</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2248155482935</v>
+        <v>349.2248155482936</v>
       </c>
       <c r="L12" t="n">
-        <v>512.4083877576929</v>
+        <v>518.8231336871685</v>
       </c>
       <c r="M12" t="n">
-        <v>715.417883966182</v>
+        <v>721.8326298956575</v>
       </c>
       <c r="N12" t="n">
-        <v>939.5808025904117</v>
+        <v>939.5808025904121</v>
       </c>
       <c r="O12" t="n">
-        <v>1124.334973168425</v>
+        <v>1124.334973168426</v>
       </c>
       <c r="P12" t="n">
         <v>1260.04999021455</v>
       </c>
       <c r="Q12" t="n">
-        <v>1318.324407352075</v>
+        <v>1318.324407352076</v>
       </c>
       <c r="R12" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S12" t="n">
-        <v>1254.135937528826</v>
+        <v>1254.135937528827</v>
       </c>
       <c r="T12" t="n">
-        <v>1081.931685117233</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="U12" t="n">
-        <v>871.946554190698</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="V12" t="n">
-        <v>649.406552561765</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="W12" t="n">
-        <v>649.406552561765</v>
+        <v>851.8144392505205</v>
       </c>
       <c r="X12" t="n">
-        <v>460.0994749117767</v>
+        <v>851.8144392505205</v>
       </c>
       <c r="Y12" t="n">
-        <v>441.0765936024131</v>
+        <v>672.5002223260278</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.7649168597761</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="C13" t="n">
-        <v>507.5597989257654</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="D13" t="n">
-        <v>351.9266858282801</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="E13" t="n">
-        <v>351.9266858282801</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="F13" t="n">
-        <v>194.6007510412531</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="G13" t="n">
-        <v>27.34082230314442</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H13" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808775</v>
       </c>
       <c r="I13" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J13" t="n">
-        <v>27.34082230314442</v>
+        <v>66.45306417582708</v>
       </c>
       <c r="K13" t="n">
-        <v>57.5216240930788</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L13" t="n">
-        <v>366.5073570650327</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M13" t="n">
-        <v>429.8411636633847</v>
+        <v>908.8173476818092</v>
       </c>
       <c r="N13" t="n">
-        <v>743.8890561905393</v>
+        <v>1241.107891650724</v>
       </c>
       <c r="O13" t="n">
-        <v>1044.312646241303</v>
+        <v>1337.826841016741</v>
       </c>
       <c r="P13" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q13" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R13" t="n">
-        <v>1367.041115157221</v>
+        <v>1287.839608093954</v>
       </c>
       <c r="S13" t="n">
-        <v>1181.549921670758</v>
+        <v>1102.348414607491</v>
       </c>
       <c r="T13" t="n">
-        <v>1181.549921670758</v>
+        <v>870.876988469812</v>
       </c>
       <c r="U13" t="n">
-        <v>1097.053257768094</v>
+        <v>826.4888146230905</v>
       </c>
       <c r="V13" t="n">
-        <v>1097.053257768094</v>
+        <v>560.5094694439148</v>
       </c>
       <c r="W13" t="n">
-        <v>1097.053257768094</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="X13" t="n">
-        <v>862.9729355510774</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.9729355510774</v>
+        <v>277.1790673750924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>676.6163095222614</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="C14" t="n">
-        <v>425.4490764333948</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="D14" t="n">
-        <v>425.4490764333948</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="E14" t="n">
-        <v>425.4490764333948</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="F14" t="n">
-        <v>425.4490764333948</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="G14" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H14" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I14" t="n">
         <v>27.34082230314444</v>
@@ -5284,16 +5284,16 @@
         <v>229.8695478244282</v>
       </c>
       <c r="L14" t="n">
-        <v>420.9320297462643</v>
+        <v>420.9320297462641</v>
       </c>
       <c r="M14" t="n">
-        <v>654.1109890220059</v>
+        <v>654.1109890220057</v>
       </c>
       <c r="N14" t="n">
-        <v>894.062003086167</v>
+        <v>894.0620030861668</v>
       </c>
       <c r="O14" t="n">
-        <v>1111.973021646434</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P14" t="n">
         <v>1275.529383879706</v>
@@ -5305,25 +5305,25 @@
         <v>1367.041115157222</v>
       </c>
       <c r="S14" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T14" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="U14" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="V14" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="W14" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="X14" t="n">
-        <v>1367.041115157222</v>
+        <v>717.7656279381049</v>
       </c>
       <c r="Y14" t="n">
-        <v>1021.828712339742</v>
+        <v>717.7656279381049</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>489.5955069369606</v>
+        <v>305.429849633849</v>
       </c>
       <c r="C15" t="n">
-        <v>489.5955069369606</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="D15" t="n">
-        <v>359.506539558441</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="E15" t="n">
-        <v>223.0600486693287</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="F15" t="n">
-        <v>223.0600486693287</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="G15" t="n">
-        <v>104.186019142505</v>
+        <v>35.9015896671175</v>
       </c>
       <c r="H15" t="n">
-        <v>27.34082230314444</v>
+        <v>35.9015896671175</v>
       </c>
       <c r="I15" t="n">
         <v>27.34082230314444</v>
       </c>
       <c r="J15" t="n">
-        <v>55.52239243964179</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K15" t="n">
-        <v>220.3063816848457</v>
+        <v>404.356269282915</v>
       </c>
       <c r="L15" t="n">
-        <v>383.4899538942453</v>
+        <v>567.5398414923145</v>
       </c>
       <c r="M15" t="n">
-        <v>721.8326298956578</v>
+        <v>770.5493377008037</v>
       </c>
       <c r="N15" t="n">
-        <v>939.5808025904123</v>
+        <v>988.2975103955582</v>
       </c>
       <c r="O15" t="n">
-        <v>1124.334973168426</v>
+        <v>1173.051680973572</v>
       </c>
       <c r="P15" t="n">
-        <v>1260.049990214551</v>
+        <v>1308.766698019697</v>
       </c>
       <c r="Q15" t="n">
-        <v>1318.324407352076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R15" t="n">
         <v>1367.041115157222</v>
@@ -5387,22 +5387,22 @@
         <v>1254.135937528827</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.135937528827</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="U15" t="n">
-        <v>1050.823304169128</v>
+        <v>937.4013140539878</v>
       </c>
       <c r="V15" t="n">
-        <v>1050.823304169128</v>
+        <v>714.8613124250548</v>
       </c>
       <c r="W15" t="n">
-        <v>820.7060583024147</v>
+        <v>484.7440665583417</v>
       </c>
       <c r="X15" t="n">
-        <v>820.7060583024147</v>
+        <v>484.7440665583417</v>
       </c>
       <c r="Y15" t="n">
-        <v>641.391841377922</v>
+        <v>305.429849633849</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>522.1318037622909</v>
+        <v>168.2582454926713</v>
       </c>
       <c r="C16" t="n">
-        <v>351.9266858282801</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="D16" t="n">
-        <v>351.9266858282801</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="E16" t="n">
-        <v>351.9266858282801</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="F16" t="n">
-        <v>194.6007510412531</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G16" t="n">
         <v>27.34082230314444</v>
@@ -5436,52 +5436,52 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J16" t="n">
-        <v>27.34082230314444</v>
+        <v>66.45306417582709</v>
       </c>
       <c r="K16" t="n">
-        <v>114.6354435360779</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L16" t="n">
-        <v>423.6211765080319</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M16" t="n">
-        <v>761.9638525094443</v>
+        <v>663.4000617570946</v>
       </c>
       <c r="N16" t="n">
-        <v>828.899114583772</v>
+        <v>995.6906057260089</v>
       </c>
       <c r="O16" t="n">
-        <v>1129.322704634536</v>
+        <v>1044.312646241304</v>
       </c>
       <c r="P16" t="n">
-        <v>1367.041115157222</v>
+        <v>1282.03105676399</v>
       </c>
       <c r="Q16" t="n">
         <v>1367.041115157222</v>
       </c>
       <c r="R16" t="n">
-        <v>1367.041115157222</v>
+        <v>1287.839608093954</v>
       </c>
       <c r="S16" t="n">
-        <v>1181.549921670759</v>
+        <v>1102.348414607491</v>
       </c>
       <c r="T16" t="n">
-        <v>1030.628431694886</v>
+        <v>870.876988469812</v>
       </c>
       <c r="U16" t="n">
-        <v>745.2438649456476</v>
+        <v>870.876988469812</v>
       </c>
       <c r="V16" t="n">
-        <v>745.2438649456476</v>
+        <v>870.876988469812</v>
       </c>
       <c r="W16" t="n">
-        <v>745.2438649456476</v>
+        <v>587.5465864009896</v>
       </c>
       <c r="X16" t="n">
-        <v>745.2438649456476</v>
+        <v>353.4662641839726</v>
       </c>
       <c r="Y16" t="n">
-        <v>522.1318037622909</v>
+        <v>353.4662641839726</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>808.0296633688708</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="C17" t="n">
-        <v>808.0296633688708</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="D17" t="n">
-        <v>808.0296633688708</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="E17" t="n">
-        <v>462.8172605513905</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="F17" t="n">
-        <v>425.4490764333948</v>
+        <v>673.9392945211948</v>
       </c>
       <c r="G17" t="n">
-        <v>80.2366736159145</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H17" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I17" t="n">
         <v>27.34082230314444</v>
@@ -5542,25 +5542,25 @@
         <v>1367.041115157222</v>
       </c>
       <c r="S17" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="U17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="V17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="W17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="X17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="Y17" t="n">
-        <v>1153.242066186351</v>
+        <v>1251.029935812966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>696.397114018349</v>
+        <v>183.9811077195986</v>
       </c>
       <c r="C18" t="n">
-        <v>545.7428835784413</v>
+        <v>183.9811077195986</v>
       </c>
       <c r="D18" t="n">
-        <v>415.6539161999216</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="E18" t="n">
-        <v>279.2074253108094</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="F18" t="n">
-        <v>154.7756191939412</v>
+        <v>146.2148518299681</v>
       </c>
       <c r="G18" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H18" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I18" t="n">
         <v>27.34082230314444</v>
@@ -5603,43 +5603,43 @@
         <v>317.6733927779658</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0160687793783</v>
+        <v>520.6828889864549</v>
       </c>
       <c r="N18" t="n">
-        <v>873.7642414741329</v>
+        <v>738.4310616812095</v>
       </c>
       <c r="O18" t="n">
-        <v>1124.334973168426</v>
+        <v>923.1852322592231</v>
       </c>
       <c r="P18" t="n">
-        <v>1260.049990214551</v>
+        <v>1058.900249305348</v>
       </c>
       <c r="Q18" t="n">
-        <v>1318.324407352076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R18" t="n">
         <v>1367.041115157222</v>
       </c>
       <c r="S18" t="n">
-        <v>1254.135937528827</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T18" t="n">
-        <v>1081.931685117234</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U18" t="n">
-        <v>871.9465541906989</v>
+        <v>1157.055984230687</v>
       </c>
       <c r="V18" t="n">
-        <v>848.1934484593104</v>
+        <v>934.5159826017541</v>
       </c>
       <c r="W18" t="n">
-        <v>848.1934484593104</v>
+        <v>704.398736735041</v>
       </c>
       <c r="X18" t="n">
-        <v>848.1934484593104</v>
+        <v>515.0916590850527</v>
       </c>
       <c r="Y18" t="n">
-        <v>848.1934484593104</v>
+        <v>335.7774421605599</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>716.2813481112247</v>
+        <v>758.576110547386</v>
       </c>
       <c r="C19" t="n">
-        <v>546.0762301772139</v>
+        <v>588.3709926133752</v>
       </c>
       <c r="D19" t="n">
-        <v>390.4431170797287</v>
+        <v>432.7378795158899</v>
       </c>
       <c r="E19" t="n">
-        <v>234.8843049389312</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="F19" t="n">
-        <v>234.8843049389312</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="G19" t="n">
-        <v>67.62437620082252</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H19" t="n">
-        <v>27.34082230314444</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I19" t="n">
         <v>27.34082230314444</v>
       </c>
       <c r="J19" t="n">
-        <v>27.34082230314444</v>
+        <v>66.45306417582711</v>
       </c>
       <c r="K19" t="n">
-        <v>57.52162409307886</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L19" t="n">
-        <v>366.5073570650328</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M19" t="n">
-        <v>704.8500330664453</v>
+        <v>908.8173476818092</v>
       </c>
       <c r="N19" t="n">
-        <v>771.785295140773</v>
+        <v>975.7526097561368</v>
       </c>
       <c r="O19" t="n">
-        <v>1044.312646241304</v>
+        <v>1276.176199806901</v>
       </c>
       <c r="P19" t="n">
-        <v>1282.03105676399</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q19" t="n">
         <v>1367.041115157222</v>
@@ -5703,22 +5703,22 @@
         <v>1367.041115157222</v>
       </c>
       <c r="T19" t="n">
-        <v>1135.569689019543</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U19" t="n">
-        <v>1135.569689019543</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="V19" t="n">
-        <v>1135.569689019543</v>
+        <v>1101.061769978046</v>
       </c>
       <c r="W19" t="n">
-        <v>1135.569689019543</v>
+        <v>943.7841292386872</v>
       </c>
       <c r="X19" t="n">
-        <v>901.489366802526</v>
+        <v>943.7841292386872</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.489366802526</v>
+        <v>943.7841292386872</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.5532251206247</v>
+        <v>1021.828712339742</v>
       </c>
       <c r="C20" t="n">
-        <v>372.5532251206247</v>
+        <v>676.6163095222614</v>
       </c>
       <c r="D20" t="n">
-        <v>372.5532251206247</v>
+        <v>331.4039067047811</v>
       </c>
       <c r="E20" t="n">
         <v>27.34082230314444</v>
@@ -5752,19 +5752,19 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19447492671554</v>
+        <v>95.19447492671566</v>
       </c>
       <c r="K20" t="n">
-        <v>229.8695478244282</v>
+        <v>229.8695478244284</v>
       </c>
       <c r="L20" t="n">
-        <v>420.9320297462644</v>
+        <v>420.9320297462643</v>
       </c>
       <c r="M20" t="n">
-        <v>654.1109890220062</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N20" t="n">
-        <v>894.0620030861671</v>
+        <v>894.0620030861669</v>
       </c>
       <c r="O20" t="n">
         <v>1111.973021646434</v>
@@ -5782,22 +5782,22 @@
         <v>1367.041115157222</v>
       </c>
       <c r="T20" t="n">
-        <v>1153.242066186351</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U20" t="n">
-        <v>1153.242066186351</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="V20" t="n">
-        <v>1153.242066186351</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="W20" t="n">
-        <v>808.0296633688708</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="X20" t="n">
-        <v>717.7656279381051</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Y20" t="n">
-        <v>717.7656279381051</v>
+        <v>1367.041115157222</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>483.9383456753092</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="C21" t="n">
-        <v>483.9383456753092</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="D21" t="n">
-        <v>483.9383456753092</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="E21" t="n">
-        <v>347.4918547861969</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="F21" t="n">
-        <v>223.0600486693287</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="G21" t="n">
-        <v>104.186019142505</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="H21" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I21" t="n">
         <v>27.34082230314444</v>
       </c>
       <c r="J21" t="n">
-        <v>250.2573874193692</v>
+        <v>55.52239243964179</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2248155482937</v>
+        <v>154.4898205685663</v>
       </c>
       <c r="L21" t="n">
-        <v>512.4083877576932</v>
+        <v>317.6733927779658</v>
       </c>
       <c r="M21" t="n">
-        <v>715.4178839661823</v>
+        <v>520.6828889864549</v>
       </c>
       <c r="N21" t="n">
-        <v>939.5808025904123</v>
+        <v>738.4310616812095</v>
       </c>
       <c r="O21" t="n">
-        <v>1124.334973168426</v>
+        <v>923.1852322592231</v>
       </c>
       <c r="P21" t="n">
-        <v>1260.049990214551</v>
+        <v>1058.900249305348</v>
       </c>
       <c r="Q21" t="n">
-        <v>1318.324407352076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R21" t="n">
         <v>1367.041115157222</v>
       </c>
       <c r="S21" t="n">
-        <v>1254.135937528827</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.135937528827</v>
+        <v>1194.836862745629</v>
       </c>
       <c r="U21" t="n">
-        <v>1044.150806602292</v>
+        <v>984.8517318190939</v>
       </c>
       <c r="V21" t="n">
-        <v>1044.150806602292</v>
+        <v>762.3117301901609</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.355974690752</v>
+        <v>532.1944843234478</v>
       </c>
       <c r="X21" t="n">
-        <v>815.0488970407632</v>
+        <v>342.8874066734595</v>
       </c>
       <c r="Y21" t="n">
-        <v>635.7346801162705</v>
+        <v>163.5731897489667</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.34082230314444</v>
+        <v>522.1318037622909</v>
       </c>
       <c r="C22" t="n">
-        <v>27.34082230314444</v>
+        <v>351.9266858282801</v>
       </c>
       <c r="D22" t="n">
-        <v>27.34082230314444</v>
+        <v>351.9266858282801</v>
       </c>
       <c r="E22" t="n">
-        <v>27.34082230314444</v>
+        <v>351.9266858282801</v>
       </c>
       <c r="F22" t="n">
-        <v>27.34082230314444</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="G22" t="n">
         <v>27.34082230314444</v>
@@ -5910,22 +5910,22 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J22" t="n">
-        <v>27.34082230314444</v>
+        <v>66.45306417582711</v>
       </c>
       <c r="K22" t="n">
-        <v>57.52162409307886</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L22" t="n">
-        <v>366.5073570650328</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M22" t="n">
-        <v>496.6085706148576</v>
+        <v>908.8173476818092</v>
       </c>
       <c r="N22" t="n">
-        <v>828.899114583772</v>
+        <v>1241.107891650724</v>
       </c>
       <c r="O22" t="n">
-        <v>1129.322704634536</v>
+        <v>1337.826841016741</v>
       </c>
       <c r="P22" t="n">
         <v>1367.041115157222</v>
@@ -5934,28 +5934,28 @@
         <v>1367.041115157222</v>
       </c>
       <c r="R22" t="n">
-        <v>1287.839608093954</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S22" t="n">
-        <v>1102.348414607491</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T22" t="n">
-        <v>870.8769884698122</v>
+        <v>1207.399489849785</v>
       </c>
       <c r="U22" t="n">
-        <v>585.4924217205738</v>
+        <v>1207.399489849785</v>
       </c>
       <c r="V22" t="n">
-        <v>319.513076541398</v>
+        <v>941.4201446706091</v>
       </c>
       <c r="W22" t="n">
-        <v>36.18267447257568</v>
+        <v>941.4201446706091</v>
       </c>
       <c r="X22" t="n">
-        <v>27.34082230314444</v>
+        <v>707.3398224535922</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.34082230314444</v>
+        <v>707.3398224535922</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.186835184533</v>
+        <v>1261.079060919764</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.186835184533</v>
+        <v>867.9035594226941</v>
       </c>
       <c r="D23" t="n">
-        <v>1232.186835184533</v>
+        <v>867.9035594226941</v>
       </c>
       <c r="E23" t="n">
-        <v>925.9219347162973</v>
+        <v>763.4656288100246</v>
       </c>
       <c r="F23" t="n">
-        <v>509.0274962462751</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="G23" t="n">
-        <v>98.08097225220223</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="H23" t="n">
-        <v>98.08097225220223</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I23" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J23" t="n">
-        <v>374.191586034754</v>
+        <v>227.731583284798</v>
       </c>
       <c r="K23" t="n">
-        <v>508.8666589324667</v>
+        <v>362.4066561825107</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9291408543027</v>
+        <v>553.4691381043466</v>
       </c>
       <c r="M23" t="n">
-        <v>933.1081001300444</v>
+        <v>786.6480973800883</v>
       </c>
       <c r="N23" t="n">
-        <v>1359.169550495611</v>
+        <v>1345.813969005562</v>
       </c>
       <c r="O23" t="n">
-        <v>1577.080569055878</v>
+        <v>1904.979840631035</v>
       </c>
       <c r="P23" t="n">
-        <v>1740.63693128915</v>
+        <v>2068.536202864307</v>
       </c>
       <c r="Q23" t="n">
         <v>2160.047934141823</v>
@@ -6025,16 +6025,16 @@
         <v>2003.680615927642</v>
       </c>
       <c r="V23" t="n">
-        <v>2003.680615927642</v>
+        <v>1661.573806631161</v>
       </c>
       <c r="W23" t="n">
-        <v>1632.68158089593</v>
+        <v>1661.573806631161</v>
       </c>
       <c r="X23" t="n">
-        <v>1632.68158089593</v>
+        <v>1661.573806631161</v>
       </c>
       <c r="Y23" t="n">
-        <v>1632.68158089593</v>
+        <v>1661.573806631161</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>791.0866094939979</v>
       </c>
       <c r="C24" t="n">
-        <v>640.4323790540901</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3434116755705</v>
+        <v>510.3434116755702</v>
       </c>
       <c r="E24" t="n">
-        <v>373.8969207864582</v>
+        <v>373.8969207864579</v>
       </c>
       <c r="F24" t="n">
-        <v>249.4651146695895</v>
+        <v>249.4651146695896</v>
       </c>
       <c r="G24" t="n">
         <v>130.5910851427658</v>
@@ -6071,25 +6071,25 @@
         <v>268.101686055657</v>
       </c>
       <c r="K24" t="n">
-        <v>775.5092262268079</v>
+        <v>548.6769833387089</v>
       </c>
       <c r="L24" t="n">
-        <v>1334.675097852281</v>
+        <v>711.8605555481083</v>
       </c>
       <c r="M24" t="n">
-        <v>1537.68459406077</v>
+        <v>914.8700517565975</v>
       </c>
       <c r="N24" t="n">
-        <v>1755.432766755525</v>
+        <v>1132.618224451352</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.549904982813</v>
+        <v>1317.372395029366</v>
       </c>
       <c r="P24" t="n">
-        <v>2152.264922028938</v>
+        <v>1876.538266654839</v>
       </c>
       <c r="Q24" t="n">
-        <v>2210.539339166463</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R24" t="n">
         <v>2259.25604697161</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>683.9080988987528</v>
+        <v>691.0755508195077</v>
       </c>
       <c r="C25" t="n">
-        <v>513.702980964742</v>
+        <v>520.8704328854969</v>
       </c>
       <c r="D25" t="n">
-        <v>358.0698678672567</v>
+        <v>520.8704328854969</v>
       </c>
       <c r="E25" t="n">
-        <v>202.5110557264592</v>
+        <v>365.3116207446994</v>
       </c>
       <c r="F25" t="n">
-        <v>45.18512093943219</v>
+        <v>315.6434201552738</v>
       </c>
       <c r="G25" t="n">
-        <v>45.18512093943219</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="H25" t="n">
-        <v>45.18512093943219</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="I25" t="n">
         <v>45.18512093943219</v>
@@ -6171,28 +6171,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R25" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S25" t="n">
-        <v>1618.09299960945</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="T25" t="n">
-        <v>1386.621573471771</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="U25" t="n">
-        <v>1386.621573471771</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="V25" t="n">
-        <v>1375.558580842233</v>
+        <v>1616.806354980005</v>
       </c>
       <c r="W25" t="n">
-        <v>1092.228178773411</v>
+        <v>1333.475952911183</v>
       </c>
       <c r="X25" t="n">
-        <v>1092.228178773411</v>
+        <v>1099.395630694166</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.116117590054</v>
+        <v>876.283569510809</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1072.81798711387</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="C26" t="n">
-        <v>1072.81798711387</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="D26" t="n">
-        <v>687.3768583305382</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="E26" t="n">
-        <v>462.0795594094544</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="F26" t="n">
-        <v>45.18512093943219</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="G26" t="n">
-        <v>45.18512093943219</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="H26" t="n">
         <v>45.18512093943219</v>
@@ -6238,16 +6238,16 @@
         <v>933.1081001300444</v>
       </c>
       <c r="N26" t="n">
-        <v>1492.273971755518</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O26" t="n">
-        <v>1710.184990315784</v>
+        <v>1390.970132754472</v>
       </c>
       <c r="P26" t="n">
-        <v>1873.741352549057</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q26" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R26" t="n">
         <v>2259.25604697161</v>
@@ -6259,19 +6259,19 @@
         <v>2259.25604697161</v>
       </c>
       <c r="U26" t="n">
-        <v>2259.25604697161</v>
+        <v>2003.680615927642</v>
       </c>
       <c r="V26" t="n">
-        <v>2259.25604697161</v>
+        <v>1914.46006351213</v>
       </c>
       <c r="W26" t="n">
-        <v>2259.25604697161</v>
+        <v>1543.461028480417</v>
       </c>
       <c r="X26" t="n">
-        <v>1869.803441904666</v>
+        <v>1154.008423413474</v>
       </c>
       <c r="Y26" t="n">
-        <v>1473.312732825267</v>
+        <v>757.5177143340752</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>791.0866094939975</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C27" t="n">
-        <v>640.4323790540897</v>
+        <v>640.4323790540901</v>
       </c>
       <c r="D27" t="n">
-        <v>510.34341167557</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E27" t="n">
-        <v>373.8969207864577</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F27" t="n">
-        <v>249.4651146695895</v>
+        <v>249.46511466959</v>
       </c>
       <c r="G27" t="n">
-        <v>130.5910851427658</v>
+        <v>130.5910851427663</v>
       </c>
       <c r="H27" t="n">
-        <v>53.74588830340525</v>
+        <v>53.74588830340571</v>
       </c>
       <c r="I27" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36669107592954</v>
+        <v>268.101686055657</v>
       </c>
       <c r="K27" t="n">
-        <v>449.9919376653483</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L27" t="n">
-        <v>613.1755098747478</v>
+        <v>1086.594702322311</v>
       </c>
       <c r="M27" t="n">
-        <v>816.185006083237</v>
+        <v>1289.6041985308</v>
       </c>
       <c r="N27" t="n">
-        <v>1033.933178777992</v>
+        <v>1507.352371225554</v>
       </c>
       <c r="O27" t="n">
-        <v>1593.099050403465</v>
+        <v>1692.106541803568</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.264922028938</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q27" t="n">
         <v>2210.539339166463</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>933.7463439707008</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="C28" t="n">
-        <v>763.54122603669</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="D28" t="n">
-        <v>607.9081129392048</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="E28" t="n">
-        <v>452.3493007984072</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="F28" t="n">
         <v>295.0233660113802</v>
@@ -6408,28 +6408,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R28" t="n">
-        <v>1882.785700159181</v>
+        <v>1803.584193095913</v>
       </c>
       <c r="S28" t="n">
-        <v>1882.785700159181</v>
+        <v>1618.09299960945</v>
       </c>
       <c r="T28" t="n">
-        <v>1651.314274021501</v>
+        <v>1386.621573471771</v>
       </c>
       <c r="U28" t="n">
-        <v>1365.929707272263</v>
+        <v>1101.237006722532</v>
       </c>
       <c r="V28" t="n">
-        <v>1365.929707272263</v>
+        <v>835.2576615433567</v>
       </c>
       <c r="W28" t="n">
-        <v>1118.954362662002</v>
+        <v>551.9272594745344</v>
       </c>
       <c r="X28" t="n">
-        <v>1118.954362662002</v>
+        <v>518.1354271947368</v>
       </c>
       <c r="Y28" t="n">
-        <v>1118.954362662002</v>
+        <v>295.0233660113802</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>661.8314435139475</v>
+        <v>1145.067881575507</v>
       </c>
       <c r="C29" t="n">
-        <v>661.8314435139475</v>
+        <v>751.892380078438</v>
       </c>
       <c r="D29" t="n">
-        <v>661.8314435139475</v>
+        <v>751.892380078438</v>
       </c>
       <c r="E29" t="n">
-        <v>661.8314435139475</v>
+        <v>751.892380078438</v>
       </c>
       <c r="F29" t="n">
-        <v>244.9370050439253</v>
+        <v>334.9979416084158</v>
       </c>
       <c r="G29" t="n">
-        <v>244.9370050439253</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H29" t="n">
         <v>45.18512093943219</v>
@@ -6466,22 +6466,22 @@
         <v>374.191586034754</v>
       </c>
       <c r="K29" t="n">
-        <v>508.8666589324667</v>
+        <v>694.9770952338729</v>
       </c>
       <c r="L29" t="n">
-        <v>894.7239911695534</v>
+        <v>886.0395771557088</v>
       </c>
       <c r="M29" t="n">
-        <v>1127.902950445295</v>
+        <v>1119.218536431451</v>
       </c>
       <c r="N29" t="n">
-        <v>1687.068822070768</v>
+        <v>1359.169550495611</v>
       </c>
       <c r="O29" t="n">
-        <v>1904.979840631035</v>
+        <v>1577.080569055878</v>
       </c>
       <c r="P29" t="n">
-        <v>2068.536202864307</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q29" t="n">
         <v>2160.047934141823</v>
@@ -6490,25 +6490,25 @@
         <v>2259.25604697161</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T29" t="n">
-        <v>2045.456998000739</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="U29" t="n">
-        <v>1789.881566956771</v>
+        <v>1887.669436583386</v>
       </c>
       <c r="V29" t="n">
-        <v>1447.77475766029</v>
+        <v>1545.562627286904</v>
       </c>
       <c r="W29" t="n">
-        <v>1447.77475766029</v>
+        <v>1545.562627286904</v>
       </c>
       <c r="X29" t="n">
-        <v>1058.322152593346</v>
+        <v>1545.562627286904</v>
       </c>
       <c r="Y29" t="n">
-        <v>661.8314435139475</v>
+        <v>1545.562627286904</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>791.0866094939979</v>
+        <v>791.0866094939977</v>
       </c>
       <c r="C30" t="n">
-        <v>640.4323790540901</v>
+        <v>640.4323790540898</v>
       </c>
       <c r="D30" t="n">
-        <v>510.3434116755705</v>
+        <v>510.34341167557</v>
       </c>
       <c r="E30" t="n">
         <v>373.8969207864577</v>
@@ -6548,16 +6548,16 @@
         <v>367.0691141845815</v>
       </c>
       <c r="L30" t="n">
-        <v>926.2349858100547</v>
+        <v>530.252686393981</v>
       </c>
       <c r="M30" t="n">
-        <v>1129.244482018544</v>
+        <v>733.2621826024701</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.992654713298</v>
+        <v>951.0103552972247</v>
       </c>
       <c r="O30" t="n">
-        <v>1531.746825291312</v>
+        <v>1268.655687224219</v>
       </c>
       <c r="P30" t="n">
         <v>1827.821558849693</v>
@@ -6587,7 +6587,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8829439349593</v>
+        <v>942.882943934959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.9080988987528</v>
+        <v>369.7709844645678</v>
       </c>
       <c r="C31" t="n">
-        <v>513.702980964742</v>
+        <v>369.7709844645678</v>
       </c>
       <c r="D31" t="n">
-        <v>358.0698678672567</v>
+        <v>369.7709844645678</v>
       </c>
       <c r="E31" t="n">
-        <v>202.5110557264592</v>
+        <v>369.7709844645678</v>
       </c>
       <c r="F31" t="n">
-        <v>45.18512093943219</v>
+        <v>212.4450496775408</v>
       </c>
       <c r="G31" t="n">
         <v>45.18512093943219</v>
@@ -6645,28 +6645,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R31" t="n">
-        <v>1823.759272307282</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S31" t="n">
-        <v>1823.759272307282</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T31" t="n">
-        <v>1592.287846169603</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="U31" t="n">
-        <v>1592.287846169603</v>
+        <v>1411.909939923479</v>
       </c>
       <c r="V31" t="n">
-        <v>1326.308500990428</v>
+        <v>1145.930594744304</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.308500990428</v>
+        <v>862.6001926754811</v>
       </c>
       <c r="X31" t="n">
-        <v>1092.228178773411</v>
+        <v>778.0910643392258</v>
       </c>
       <c r="Y31" t="n">
-        <v>869.116117590054</v>
+        <v>554.9790031558691</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1690.227651410132</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.052149913063</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="D32" t="n">
-        <v>911.6110211297305</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="E32" t="n">
-        <v>509.0274962462751</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="F32" t="n">
-        <v>509.0274962462751</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G32" t="n">
-        <v>98.08097225220223</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H32" t="n">
-        <v>98.08097225220223</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I32" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J32" t="n">
-        <v>374.191586034754</v>
+        <v>113.0387735630033</v>
       </c>
       <c r="K32" t="n">
-        <v>508.8666589324667</v>
+        <v>672.2046451884767</v>
       </c>
       <c r="L32" t="n">
-        <v>1068.03253055794</v>
+        <v>863.2671271103126</v>
       </c>
       <c r="M32" t="n">
-        <v>1301.211489833682</v>
+        <v>1096.446086386054</v>
       </c>
       <c r="N32" t="n">
-        <v>1786.276934900555</v>
+        <v>1336.397100450215</v>
       </c>
       <c r="O32" t="n">
-        <v>2004.187953460821</v>
+        <v>1608.57844406862</v>
       </c>
       <c r="P32" t="n">
         <v>2167.744315694094</v>
@@ -6727,25 +6727,25 @@
         <v>2259.25604697161</v>
       </c>
       <c r="S32" t="n">
-        <v>2143.244867627353</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="T32" t="n">
-        <v>2143.244867627353</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="U32" t="n">
-        <v>2143.244867627353</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="V32" t="n">
-        <v>2090.722397121529</v>
+        <v>1917.149237675128</v>
       </c>
       <c r="W32" t="n">
-        <v>2090.722397121529</v>
+        <v>1546.150202643415</v>
       </c>
       <c r="X32" t="n">
-        <v>2090.722397121529</v>
+        <v>1156.697597576472</v>
       </c>
       <c r="Y32" t="n">
-        <v>2090.722397121529</v>
+        <v>873.0260834035273</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>791.0866094939978</v>
+        <v>791.0866094939976</v>
       </c>
       <c r="C33" t="n">
-        <v>640.43237905409</v>
+        <v>640.4323790540898</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3434116755702</v>
+        <v>510.3434116755701</v>
       </c>
       <c r="E33" t="n">
-        <v>373.8969207864579</v>
+        <v>373.8969207864578</v>
       </c>
       <c r="F33" t="n">
-        <v>249.4651146695895</v>
+        <v>249.4651146695896</v>
       </c>
       <c r="G33" t="n">
         <v>130.5910851427658</v>
@@ -6782,25 +6782,25 @@
         <v>268.101686055657</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0691141845815</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L33" t="n">
-        <v>762.1806989589995</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.346570584473</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N33" t="n">
-        <v>1880.512442209946</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.26661278796</v>
+        <v>1544.204637917465</v>
       </c>
       <c r="P33" t="n">
-        <v>2200.981629834084</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q33" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R33" t="n">
         <v>2259.25604697161</v>
@@ -6824,7 +6824,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.8829439349591</v>
+        <v>942.8829439349589</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.6092295365158</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="C34" t="n">
-        <v>619.6092295365158</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="D34" t="n">
-        <v>619.6092295365158</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="E34" t="n">
-        <v>619.6092295365158</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="F34" t="n">
-        <v>462.2832947494888</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="G34" t="n">
         <v>295.0233660113802</v>
@@ -6888,22 +6888,22 @@
         <v>1618.09299960945</v>
       </c>
       <c r="T34" t="n">
-        <v>1618.09299960945</v>
+        <v>1386.621573471771</v>
       </c>
       <c r="U34" t="n">
-        <v>1354.126995475815</v>
+        <v>1101.237006722532</v>
       </c>
       <c r="V34" t="n">
-        <v>1088.14765029664</v>
+        <v>835.2576615433567</v>
       </c>
       <c r="W34" t="n">
-        <v>804.8172482278171</v>
+        <v>551.9272594745344</v>
       </c>
       <c r="X34" t="n">
-        <v>804.8172482278171</v>
+        <v>317.8469372575174</v>
       </c>
       <c r="Y34" t="n">
-        <v>804.8172482278171</v>
+        <v>317.8469372575174</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>676.6163095222616</v>
+        <v>372.553225120625</v>
       </c>
       <c r="C35" t="n">
-        <v>676.6163095222616</v>
+        <v>372.553225120625</v>
       </c>
       <c r="D35" t="n">
-        <v>372.5532251206249</v>
+        <v>372.553225120625</v>
       </c>
       <c r="E35" t="n">
-        <v>27.34082230314445</v>
+        <v>372.553225120625</v>
       </c>
       <c r="F35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="G35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I35" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J35" t="n">
-        <v>95.19447492671556</v>
+        <v>95.19447492671557</v>
       </c>
       <c r="K35" t="n">
         <v>229.8695478244282</v>
       </c>
       <c r="L35" t="n">
-        <v>420.9320297462641</v>
+        <v>420.9320297462642</v>
       </c>
       <c r="M35" t="n">
-        <v>654.1109890220058</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N35" t="n">
         <v>894.0620030861669</v>
@@ -6964,25 +6964,25 @@
         <v>1367.041115157223</v>
       </c>
       <c r="S35" t="n">
-        <v>1367.041115157223</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T35" t="n">
-        <v>1367.041115157223</v>
+        <v>1037.230886842096</v>
       </c>
       <c r="U35" t="n">
-        <v>1367.041115157223</v>
+        <v>1037.230886842096</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.041115157223</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="W35" t="n">
-        <v>1367.041115157223</v>
+        <v>372.553225120625</v>
       </c>
       <c r="X35" t="n">
-        <v>1367.041115157223</v>
+        <v>372.553225120625</v>
       </c>
       <c r="Y35" t="n">
-        <v>1021.828712339742</v>
+        <v>372.553225120625</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>590.3832808090219</v>
+        <v>653.7411804536405</v>
       </c>
       <c r="C36" t="n">
-        <v>439.7290503691141</v>
+        <v>503.0869500137327</v>
       </c>
       <c r="D36" t="n">
-        <v>309.6400829905945</v>
+        <v>372.997982635213</v>
       </c>
       <c r="E36" t="n">
-        <v>309.6400829905945</v>
+        <v>236.5514917461007</v>
       </c>
       <c r="F36" t="n">
-        <v>185.2082768737263</v>
+        <v>231.6208160333018</v>
       </c>
       <c r="G36" t="n">
-        <v>104.186019142505</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="H36" t="n">
-        <v>27.34082230314445</v>
+        <v>35.90158966711752</v>
       </c>
       <c r="I36" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J36" t="n">
-        <v>55.5223924396418</v>
+        <v>55.52239243964181</v>
       </c>
       <c r="K36" t="n">
         <v>154.4898205685663</v>
       </c>
       <c r="L36" t="n">
-        <v>317.6733927779658</v>
+        <v>492.8324965699789</v>
       </c>
       <c r="M36" t="n">
-        <v>520.6828889864549</v>
+        <v>695.841992778468</v>
       </c>
       <c r="N36" t="n">
-        <v>738.4310616812095</v>
+        <v>913.5901654732226</v>
       </c>
       <c r="O36" t="n">
-        <v>1076.773737682622</v>
+        <v>1098.344336051236</v>
       </c>
       <c r="P36" t="n">
-        <v>1308.766698019697</v>
+        <v>1260.049990214551</v>
       </c>
       <c r="Q36" t="n">
-        <v>1367.041115157223</v>
+        <v>1318.324407352077</v>
       </c>
       <c r="R36" t="n">
         <v>1367.041115157223</v>
@@ -7046,22 +7046,22 @@
         <v>1367.041115157223</v>
       </c>
       <c r="T36" t="n">
-        <v>1194.836862745629</v>
+        <v>1194.83686274563</v>
       </c>
       <c r="U36" t="n">
-        <v>1194.836862745629</v>
+        <v>984.8517318190945</v>
       </c>
       <c r="V36" t="n">
-        <v>972.2968611166964</v>
+        <v>984.8517318190945</v>
       </c>
       <c r="W36" t="n">
-        <v>742.1796152499833</v>
+        <v>984.8517318190945</v>
       </c>
       <c r="X36" t="n">
-        <v>742.1796152499833</v>
+        <v>984.8517318190945</v>
       </c>
       <c r="Y36" t="n">
-        <v>742.1796152499833</v>
+        <v>805.5375148946018</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>302.1620196517519</v>
+        <v>462.5569085951549</v>
       </c>
       <c r="C37" t="n">
-        <v>131.9569017177411</v>
+        <v>292.3517906611442</v>
       </c>
       <c r="D37" t="n">
-        <v>131.9569017177411</v>
+        <v>136.7186775636589</v>
       </c>
       <c r="E37" t="n">
-        <v>131.9569017177411</v>
+        <v>136.7186775636589</v>
       </c>
       <c r="F37" t="n">
-        <v>131.9569017177411</v>
+        <v>136.7186775636589</v>
       </c>
       <c r="G37" t="n">
-        <v>27.34082230314445</v>
+        <v>136.7186775636589</v>
       </c>
       <c r="H37" t="n">
-        <v>27.34082230314445</v>
+        <v>130.5391927808775</v>
       </c>
       <c r="I37" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J37" t="n">
-        <v>66.45306417582711</v>
+        <v>27.6034962337625</v>
       </c>
       <c r="K37" t="n">
-        <v>261.4889387084429</v>
+        <v>57.78429802369692</v>
       </c>
       <c r="L37" t="n">
-        <v>570.4746716803968</v>
+        <v>366.7700309956509</v>
       </c>
       <c r="M37" t="n">
-        <v>663.4000617570953</v>
+        <v>705.1127069970635</v>
       </c>
       <c r="N37" t="n">
-        <v>995.6906057260096</v>
+        <v>1037.403250965978</v>
       </c>
       <c r="O37" t="n">
-        <v>1044.312646241305</v>
+        <v>1337.826841016742</v>
       </c>
       <c r="P37" t="n">
-        <v>1282.031056763991</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q37" t="n">
         <v>1367.041115157223</v>
@@ -7125,22 +7125,22 @@
         <v>1102.348414607492</v>
       </c>
       <c r="T37" t="n">
-        <v>870.8769884698127</v>
+        <v>870.8769884698129</v>
       </c>
       <c r="U37" t="n">
-        <v>585.4924217205743</v>
+        <v>870.8769884698129</v>
       </c>
       <c r="V37" t="n">
-        <v>585.4924217205743</v>
+        <v>870.8769884698129</v>
       </c>
       <c r="W37" t="n">
-        <v>302.1620196517519</v>
+        <v>870.8769884698129</v>
       </c>
       <c r="X37" t="n">
-        <v>302.1620196517519</v>
+        <v>870.8769884698129</v>
       </c>
       <c r="Y37" t="n">
-        <v>302.1620196517519</v>
+        <v>647.7649272864562</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>717.7656279381054</v>
+        <v>1021.828712339742</v>
       </c>
       <c r="C38" t="n">
-        <v>717.7656279381054</v>
+        <v>1021.828712339742</v>
       </c>
       <c r="D38" t="n">
-        <v>717.7656279381054</v>
+        <v>676.6163095222616</v>
       </c>
       <c r="E38" t="n">
-        <v>717.7656279381054</v>
+        <v>372.553225120625</v>
       </c>
       <c r="F38" t="n">
-        <v>372.5532251206249</v>
+        <v>372.553225120625</v>
       </c>
       <c r="G38" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H38" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I38" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J38" t="n">
-        <v>95.19447492671588</v>
+        <v>95.19447492671557</v>
       </c>
       <c r="K38" t="n">
-        <v>229.8695478244288</v>
+        <v>229.8695478244282</v>
       </c>
       <c r="L38" t="n">
-        <v>420.9320297462647</v>
+        <v>420.9320297462642</v>
       </c>
       <c r="M38" t="n">
-        <v>654.1109890220063</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N38" t="n">
-        <v>894.0620030861674</v>
+        <v>894.0620030861669</v>
       </c>
       <c r="O38" t="n">
-        <v>1111.973021646434</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P38" t="n">
         <v>1275.529383879706</v>
       </c>
       <c r="Q38" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R38" t="n">
         <v>1367.041115157223</v>
@@ -7213,13 +7213,13 @@
         <v>1367.041115157223</v>
       </c>
       <c r="W38" t="n">
-        <v>1062.978030755586</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="X38" t="n">
-        <v>1062.978030755586</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Y38" t="n">
-        <v>717.7656279381054</v>
+        <v>1367.041115157223</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>432.8573954587004</v>
+        <v>352.8802673989557</v>
       </c>
       <c r="C39" t="n">
-        <v>282.2031650187926</v>
+        <v>352.8802673989557</v>
       </c>
       <c r="D39" t="n">
-        <v>152.1141976402729</v>
+        <v>352.8802673989557</v>
       </c>
       <c r="E39" t="n">
-        <v>152.1141976402729</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="F39" t="n">
-        <v>152.1141976402729</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="G39" t="n">
         <v>104.186019142505</v>
       </c>
       <c r="H39" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I39" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J39" t="n">
-        <v>55.5223924396418</v>
+        <v>55.52239243964181</v>
       </c>
       <c r="K39" t="n">
-        <v>201.7286103276278</v>
+        <v>393.8650684410544</v>
       </c>
       <c r="L39" t="n">
-        <v>364.9121825370273</v>
+        <v>557.048640650454</v>
       </c>
       <c r="M39" t="n">
-        <v>567.9216787455165</v>
+        <v>760.0581368589432</v>
       </c>
       <c r="N39" t="n">
-        <v>785.669851440271</v>
+        <v>977.8063095536977</v>
       </c>
       <c r="O39" t="n">
-        <v>970.4240220182846</v>
+        <v>1162.560480131711</v>
       </c>
       <c r="P39" t="n">
-        <v>1308.766698019697</v>
+        <v>1308.766698019698</v>
       </c>
       <c r="Q39" t="n">
         <v>1367.041115157223</v>
@@ -7280,25 +7280,25 @@
         <v>1367.041115157223</v>
       </c>
       <c r="S39" t="n">
-        <v>1254.135937528828</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.135937528828</v>
+        <v>1194.83686274563</v>
       </c>
       <c r="U39" t="n">
-        <v>1254.135937528828</v>
+        <v>984.8517318190945</v>
       </c>
       <c r="V39" t="n">
-        <v>1031.595935899895</v>
+        <v>762.3117301901616</v>
       </c>
       <c r="W39" t="n">
-        <v>801.4786900331815</v>
+        <v>532.1944843234485</v>
       </c>
       <c r="X39" t="n">
-        <v>612.1716123831932</v>
+        <v>532.1944843234485</v>
       </c>
       <c r="Y39" t="n">
-        <v>432.8573954587004</v>
+        <v>352.8802673989557</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>604.8976432906369</v>
+        <v>599.0570528061874</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8976432906369</v>
+        <v>599.0570528061874</v>
       </c>
       <c r="D40" t="n">
-        <v>507.4854979690776</v>
+        <v>443.4239397087021</v>
       </c>
       <c r="E40" t="n">
-        <v>351.9266858282801</v>
+        <v>287.8651275679046</v>
       </c>
       <c r="F40" t="n">
-        <v>194.6007510412531</v>
+        <v>130.5391927808775</v>
       </c>
       <c r="G40" t="n">
-        <v>27.34082230314445</v>
+        <v>130.5391927808775</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34082230314445</v>
+        <v>130.5391927808775</v>
       </c>
       <c r="I40" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J40" t="n">
-        <v>66.45306417582711</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="K40" t="n">
-        <v>224.5757891659338</v>
+        <v>57.78429802369692</v>
       </c>
       <c r="L40" t="n">
-        <v>533.5615221378878</v>
+        <v>366.7700309956509</v>
       </c>
       <c r="M40" t="n">
-        <v>871.9041981393004</v>
+        <v>705.1127069970635</v>
       </c>
       <c r="N40" t="n">
-        <v>1204.194742108215</v>
+        <v>1037.403250965978</v>
       </c>
       <c r="O40" t="n">
-        <v>1252.81678262351</v>
+        <v>1337.826841016742</v>
       </c>
       <c r="P40" t="n">
-        <v>1282.031056763991</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q40" t="n">
         <v>1367.041115157223</v>
       </c>
       <c r="R40" t="n">
-        <v>1287.839608093955</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S40" t="n">
-        <v>1102.348414607492</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="T40" t="n">
-        <v>870.8769884698127</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="U40" t="n">
-        <v>870.8769884698127</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="V40" t="n">
-        <v>604.8976432906369</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="W40" t="n">
-        <v>604.8976432906369</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="X40" t="n">
-        <v>604.8976432906369</v>
+        <v>1007.377132680845</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.8976432906369</v>
+        <v>784.2650714974886</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1062.978030755585</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="C41" t="n">
-        <v>1062.978030755585</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="D41" t="n">
-        <v>717.7656279381051</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="E41" t="n">
-        <v>717.7656279381051</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="F41" t="n">
-        <v>372.5532251206247</v>
+        <v>372.553225120625</v>
       </c>
       <c r="G41" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H41" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I41" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J41" t="n">
-        <v>95.19447492671554</v>
+        <v>95.19447492671588</v>
       </c>
       <c r="K41" t="n">
-        <v>229.8695478244282</v>
+        <v>229.869547824429</v>
       </c>
       <c r="L41" t="n">
-        <v>420.9320297462641</v>
+        <v>420.9320297462649</v>
       </c>
       <c r="M41" t="n">
-        <v>654.1109890220062</v>
+        <v>654.1109890220066</v>
       </c>
       <c r="N41" t="n">
-        <v>894.0620030861671</v>
+        <v>894.0620030861677</v>
       </c>
       <c r="O41" t="n">
         <v>1111.973021646434</v>
       </c>
       <c r="P41" t="n">
-        <v>1275.529383879706</v>
+        <v>1275.529383879707</v>
       </c>
       <c r="Q41" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R41" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S41" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T41" t="n">
-        <v>1318.553461799553</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="U41" t="n">
-        <v>1062.978030755585</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="V41" t="n">
-        <v>1062.978030755585</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="W41" t="n">
-        <v>1062.978030755585</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="X41" t="n">
-        <v>1062.978030755585</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="Y41" t="n">
-        <v>1062.978030755585</v>
+        <v>717.7656279381055</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>648.8105047408415</v>
+        <v>393.9662386461343</v>
       </c>
       <c r="C42" t="n">
-        <v>498.1562743009337</v>
+        <v>393.9662386461343</v>
       </c>
       <c r="D42" t="n">
-        <v>368.067306922414</v>
+        <v>263.8772712676147</v>
       </c>
       <c r="E42" t="n">
-        <v>231.6208160333018</v>
+        <v>127.4307803785024</v>
       </c>
       <c r="F42" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H42" t="n">
-        <v>35.90158966711751</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I42" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J42" t="n">
-        <v>55.52239243964179</v>
+        <v>55.52239243964181</v>
       </c>
       <c r="K42" t="n">
-        <v>154.4898205685663</v>
+        <v>355.6395614777697</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2066616993914</v>
+        <v>518.8231336871693</v>
       </c>
       <c r="M42" t="n">
-        <v>770.5493377008039</v>
+        <v>721.8326298956584</v>
       </c>
       <c r="N42" t="n">
-        <v>988.2975103955584</v>
+        <v>939.580802590413</v>
       </c>
       <c r="O42" t="n">
-        <v>1173.051680973572</v>
+        <v>1124.334973168427</v>
       </c>
       <c r="P42" t="n">
-        <v>1308.766698019697</v>
+        <v>1260.049990214551</v>
       </c>
       <c r="Q42" t="n">
-        <v>1367.041115157222</v>
+        <v>1318.324407352077</v>
       </c>
       <c r="R42" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S42" t="n">
-        <v>1254.135937528827</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T42" t="n">
-        <v>1081.931685117234</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="U42" t="n">
-        <v>1081.931685117234</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="V42" t="n">
-        <v>979.9210561062955</v>
+        <v>1144.50111352829</v>
       </c>
       <c r="W42" t="n">
-        <v>979.9210561062955</v>
+        <v>914.3838676615767</v>
       </c>
       <c r="X42" t="n">
-        <v>979.9210561062955</v>
+        <v>725.0767900115884</v>
       </c>
       <c r="Y42" t="n">
-        <v>800.6068391818028</v>
+        <v>545.7625730870957</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>770.2029261880093</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="C43" t="n">
-        <v>599.9978082539985</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="D43" t="n">
-        <v>599.9978082539985</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="E43" t="n">
-        <v>444.438996113201</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="F43" t="n">
-        <v>444.438996113201</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="G43" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H43" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I43" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J43" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="K43" t="n">
-        <v>222.3766968357602</v>
+        <v>57.78429802369692</v>
       </c>
       <c r="L43" t="n">
-        <v>531.3624298077142</v>
+        <v>366.7700309956509</v>
       </c>
       <c r="M43" t="n">
-        <v>869.7051058091267</v>
+        <v>705.1127069970635</v>
       </c>
       <c r="N43" t="n">
-        <v>1201.995649778041</v>
+        <v>1037.403250965978</v>
       </c>
       <c r="O43" t="n">
-        <v>1250.617690293336</v>
+        <v>1337.826841016742</v>
       </c>
       <c r="P43" t="n">
-        <v>1282.03105676399</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S43" t="n">
-        <v>1367.041115157222</v>
+        <v>1327.586884655077</v>
       </c>
       <c r="T43" t="n">
-        <v>1367.041115157222</v>
+        <v>1096.115458517398</v>
       </c>
       <c r="U43" t="n">
-        <v>1367.041115157222</v>
+        <v>810.7308917681595</v>
       </c>
       <c r="V43" t="n">
-        <v>1101.061769978046</v>
+        <v>544.7515465889837</v>
       </c>
       <c r="W43" t="n">
-        <v>817.731367909224</v>
+        <v>261.4211445201614</v>
       </c>
       <c r="X43" t="n">
-        <v>770.2029261880093</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="Y43" t="n">
-        <v>770.2029261880093</v>
+        <v>27.34082230314446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>692.0184840246147</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="C44" t="n">
-        <v>692.0184840246147</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="D44" t="n">
-        <v>692.0184840246147</v>
+        <v>372.553225120625</v>
       </c>
       <c r="E44" t="n">
-        <v>692.0184840246147</v>
+        <v>372.553225120625</v>
       </c>
       <c r="F44" t="n">
-        <v>372.5532251206247</v>
+        <v>372.553225120625</v>
       </c>
       <c r="G44" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H44" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I44" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J44" t="n">
-        <v>95.19447492671566</v>
+        <v>95.19447492671557</v>
       </c>
       <c r="K44" t="n">
-        <v>229.8695478244284</v>
+        <v>229.8695478244282</v>
       </c>
       <c r="L44" t="n">
-        <v>420.9320297462643</v>
+        <v>420.9320297462642</v>
       </c>
       <c r="M44" t="n">
         <v>654.1109890220059</v>
@@ -7663,7 +7663,7 @@
         <v>894.0620030861669</v>
       </c>
       <c r="O44" t="n">
-        <v>1111.973021646434</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P44" t="n">
         <v>1275.529383879706</v>
@@ -7672,28 +7672,28 @@
         <v>1367.041115157222</v>
       </c>
       <c r="R44" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S44" t="n">
-        <v>1251.029935812966</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T44" t="n">
-        <v>1037.230886842095</v>
+        <v>1153.242066186352</v>
       </c>
       <c r="U44" t="n">
-        <v>1037.230886842095</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="V44" t="n">
-        <v>1037.230886842095</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="W44" t="n">
-        <v>1037.230886842095</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="X44" t="n">
-        <v>1037.230886842095</v>
+        <v>717.7656279381055</v>
       </c>
       <c r="Y44" t="n">
-        <v>692.0184840246147</v>
+        <v>717.7656279381055</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>412.1793421821532</v>
+        <v>622.588080417802</v>
       </c>
       <c r="C45" t="n">
-        <v>412.1793421821532</v>
+        <v>622.588080417802</v>
       </c>
       <c r="D45" t="n">
-        <v>412.1793421821532</v>
+        <v>492.4991130392823</v>
       </c>
       <c r="E45" t="n">
         <v>356.05262215017</v>
@@ -7721,58 +7721,58 @@
         <v>112.7467865064781</v>
       </c>
       <c r="H45" t="n">
-        <v>35.90158966711751</v>
+        <v>35.90158966711752</v>
       </c>
       <c r="I45" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J45" t="n">
         <v>250.2573874193692</v>
       </c>
       <c r="K45" t="n">
-        <v>404.3562692829152</v>
+        <v>349.2248155482937</v>
       </c>
       <c r="L45" t="n">
-        <v>567.5398414923147</v>
+        <v>518.8231336871693</v>
       </c>
       <c r="M45" t="n">
-        <v>770.5493377008039</v>
+        <v>721.8326298956584</v>
       </c>
       <c r="N45" t="n">
-        <v>988.2975103955584</v>
+        <v>939.580802590413</v>
       </c>
       <c r="O45" t="n">
-        <v>1173.051680973572</v>
+        <v>1124.334973168427</v>
       </c>
       <c r="P45" t="n">
-        <v>1308.766698019697</v>
+        <v>1260.049990214551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1367.041115157222</v>
+        <v>1318.324407352077</v>
       </c>
       <c r="R45" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S45" t="n">
-        <v>1254.135937528827</v>
+        <v>1254.135937528828</v>
       </c>
       <c r="T45" t="n">
-        <v>1254.135937528827</v>
+        <v>1081.931685117235</v>
       </c>
       <c r="U45" t="n">
-        <v>1044.150806602292</v>
+        <v>1081.931685117235</v>
       </c>
       <c r="V45" t="n">
-        <v>821.6108049733591</v>
+        <v>1042.012403934503</v>
       </c>
       <c r="W45" t="n">
-        <v>591.493559106646</v>
+        <v>811.8951580677904</v>
       </c>
       <c r="X45" t="n">
-        <v>591.493559106646</v>
+        <v>622.588080417802</v>
       </c>
       <c r="Y45" t="n">
-        <v>412.1793421821532</v>
+        <v>622.588080417802</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.34082230314444</v>
+        <v>364.8058689752639</v>
       </c>
       <c r="C46" t="n">
-        <v>27.34082230314444</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="D46" t="n">
-        <v>27.34082230314444</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="E46" t="n">
-        <v>27.34082230314444</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="F46" t="n">
-        <v>27.34082230314444</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="G46" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="H46" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="I46" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="J46" t="n">
-        <v>66.45306417582711</v>
+        <v>27.34082230314446</v>
       </c>
       <c r="K46" t="n">
-        <v>261.4889387084429</v>
+        <v>57.52162409307887</v>
       </c>
       <c r="L46" t="n">
-        <v>570.4746716803968</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M46" t="n">
-        <v>663.4000617570948</v>
+        <v>704.8500330664453</v>
       </c>
       <c r="N46" t="n">
-        <v>995.6906057260092</v>
+        <v>1037.14057703536</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.312646241304</v>
+        <v>1337.564167086124</v>
       </c>
       <c r="P46" t="n">
-        <v>1282.03105676399</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S46" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="T46" t="n">
-        <v>1367.041115157222</v>
+        <v>1135.569689019544</v>
       </c>
       <c r="U46" t="n">
-        <v>1219.050971642817</v>
+        <v>850.1851222703052</v>
       </c>
       <c r="V46" t="n">
-        <v>953.0716264636417</v>
+        <v>821.9982523756374</v>
       </c>
       <c r="W46" t="n">
-        <v>669.7412243948193</v>
+        <v>821.9982523756374</v>
       </c>
       <c r="X46" t="n">
-        <v>435.6609021778024</v>
+        <v>587.9179301586205</v>
       </c>
       <c r="Y46" t="n">
-        <v>212.5488409944457</v>
+        <v>364.8058689752639</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6.47954134290444</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6.479541342904383</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.96522144053665</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>277.7867367707681</v>
       </c>
       <c r="N13" t="n">
-        <v>249.6087176291183</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>48.58273621285073</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>66.48137486492872</v>
+        <v>55.68833710567806</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>136.7001816090134</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>57.69072671010004</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>277.7867367707681</v>
+        <v>29.8904883619654</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.06626921754308</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>136.7001816090134</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>66.48137486492871</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>252.3903522367161</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>226.1669803891274</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>62.27337495943443</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.47954134290444</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>252.3903522367161</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>67.44182520350778</v>
+        <v>277.7867367707681</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>48.58273621285093</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>16.06626921754308</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>115.8513229513078</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>187.99033969839</v>
+        <v>322.4392500619317</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7018717830372</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,10 +9719,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>183.4422920748762</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9821206222968</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>77.13431075684326</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.7281359387359</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>322.4392500619316</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>187.9903396983898</v>
       </c>
       <c r="Q26" t="n">
-        <v>296.9726900454917</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>2.307400022270173</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>280.4624428893882</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>149.3958625112155</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>378.1936374216766</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.7281359387359</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,16 +10114,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>187.9903396983901</v>
       </c>
       <c r="L29" t="n">
-        <v>196.7624750659099</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>322.4392500619317</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9821206222968</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>134.2334963121022</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9795116285415</v>
+        <v>427.7281359387359</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>428.7785845734957</v>
       </c>
       <c r="L32" t="n">
-        <v>371.8216057612499</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>247.5903343461738</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>54.81851015973581</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>399.6055650426273</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>234.270719762645</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>359.7539145626102</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>344.8663625562816</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>149.3958625112155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.307400022270173</v>
+        <v>2.307400022271073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.9283876687001</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>155.1399044680797</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>97.25044776863675</v>
+        <v>26.25316880524278</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.4725364634484</v>
+        <v>13.23054864318111</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>29.89048836196608</v>
+        <v>277.7867367707682</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.307400022270173</v>
+        <v>2.307400022271073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>47.71594925157727</v>
+        <v>241.7931796691799</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>204.6744029851392</v>
+        <v>10.59717256753683</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053662</v>
       </c>
       <c r="K40" t="n">
-        <v>129.2342658587599</v>
+        <v>0.2653272026444924</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
@@ -10995,13 +10995,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>203.1815564739429</v>
       </c>
       <c r="L42" t="n">
-        <v>115.6901706277026</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>136.7001816090134</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>12.96522144053662</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0.2653272026444924</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>277.7867367707681</v>
+        <v>277.7867367707682</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>2.221305384013309</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.307400022270173</v>
+        <v>2.307400022271073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>55.68833710567831</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.479541342905122</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053662</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>29.89048836196562</v>
+        <v>277.7867367707682</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0.2653272026444959</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.72951946497761</v>
+        <v>219.2972349643778</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7974108453156</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601654</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482664</v>
       </c>
       <c r="H11" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.6610584811623</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>43.79780022696843</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.50334843098489</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>50.74880581625031</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>76.07674487096699</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.6884222589779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H13" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>198.8790238181086</v>
+        <v>238.5864289734918</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.72951946497739</v>
+        <v>54.72951946497744</v>
       </c>
       <c r="C14" t="n">
-        <v>140.5881857241207</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>65.07677996482659</v>
+        <v>65.07677996482664</v>
       </c>
       <c r="H14" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.36689279964234</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.6610584811623</v>
+        <v>25.48967247435581</v>
       </c>
       <c r="U14" t="n">
         <v>253.0196767335278</v>
@@ -23560,10 +23560,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>43.79780022696826</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.76552319929937</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I15" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.605772591167437</v>
+        <v>64.80021226465627</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.99481779703905</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23664,10 +23664,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H16" t="n">
         <v>145.1734758482728</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>79.74443680018777</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.72951946497739</v>
+        <v>166.930342164735</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>56.79741084531537</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>375.7309918085062</v>
+        <v>70.96521529601648</v>
       </c>
       <c r="G17" t="n">
         <v>65.07677996482659</v>
       </c>
       <c r="H17" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>52.36689279964234</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U17" t="n">
         <v>253.0196767335278</v>
@@ -23813,16 +23813,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>91.39948437400031</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>196.7990269385691</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,13 +23904,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H19" t="n">
-        <v>105.2927574895715</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U19" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>124.7922337161686</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,13 +23971,13 @@
         <v>54.72951946497739</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>47.48346769279317</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>39.82643870619341</v>
       </c>
       <c r="E20" t="n">
-        <v>56.79741084531537</v>
+        <v>97.5352360770006</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -24022,7 +24022,7 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U20" t="n">
         <v>253.0196767335278</v>
@@ -24031,10 +24031,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>25.52876589208989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>296.1966839398157</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>99.96023188648803</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24056,19 +24056,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T21" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4191898156209</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,10 +24138,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>145.1734758482728</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.11150282193958</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>222.9860853471098</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>95.35543817106799</v>
+        <v>295.164138328078</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H23" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>52.36689279964234</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>106.5811568556254</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I25" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U25" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V25" t="n">
-        <v>252.3671890241418</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>175.513363702748</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>52.36689279964234</v>
@@ -24499,13 +24499,13 @@
         <v>211.6610584811623</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>250.3573943121595</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>165.5873294507275</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.99150688397589</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>198.2856050378472</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8370587541321</v>
+        <v>119.9223662918384</v>
       </c>
       <c r="H29" t="n">
-        <v>100.6178434431163</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I29" t="n">
         <v>52.36689279964234</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.1734758482728</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.97332841925598</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S31" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U31" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>148.0754819419539</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>298.3722087065644</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.36689279964234</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T32" t="n">
         <v>211.6610584811623</v>
@@ -24976,16 +24976,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V32" t="n">
-        <v>286.6884954027506</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>111.6910029573895</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25086,10 +25086,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.9919939170517</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.20437698944789</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>54.72951946497727</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>80.56426393787859</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>56.79741084531526</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601631</v>
       </c>
       <c r="G35" t="n">
         <v>406.8370587541321</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>22.41513488856668</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589208972</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.76552319929925</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>118.3061191000286</v>
       </c>
       <c r="G36" t="n">
-        <v>37.47325407764642</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>62.01741083027684</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H37" t="n">
-        <v>145.1734758482728</v>
+        <v>139.0557859133192</v>
       </c>
       <c r="I37" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497722</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>39.82643870619324</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>97.5352360770006</v>
       </c>
       <c r="F38" t="n">
-        <v>70.96521529601637</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>65.07677996482647</v>
+        <v>65.07677996482641</v>
       </c>
       <c r="H38" t="n">
         <v>298.3722087065644</v>
@@ -25453,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>66.26659112377496</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.76552319929925</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>6.560009437890443</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>70.2363925187652</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>57.63875809816675</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H40" t="n">
         <v>145.1734758482728</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U40" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>59.30845789483129</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>39.82643870619341</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>70.96521529601648</v>
+        <v>70.96521529601631</v>
       </c>
       <c r="G41" t="n">
-        <v>65.07677996482659</v>
+        <v>65.07677996482641</v>
       </c>
       <c r="H41" t="n">
         <v>298.3722087065644</v>
@@ -25681,10 +25681,10 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T41" t="n">
-        <v>163.6582816570698</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>84.53562545865327</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>50.7655231992992</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>24.09842956109516</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U42" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V42" t="n">
-        <v>119.3240788918147</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S43" t="n">
-        <v>183.6362815515982</v>
+        <v>144.576593354474</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>184.6863616908442</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,16 +25870,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>39.82643870619324</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>96.45488777037195</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>65.07677996482659</v>
+        <v>65.07677996482641</v>
       </c>
       <c r="H44" t="n">
         <v>298.3722087065644</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0196767335278</v>
+        <v>163.6582816570698</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589208972</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.76552319929937</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25949,10 +25949,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>79.51657314855771</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>180.7945132417398</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.1734758482728</v>
@@ -26076,16 +26076,16 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.0204790024853</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>235.4145505316629</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>536351.3586514251</v>
+        <v>536351.358651425</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536351.358651425</v>
+        <v>536351.3586514251</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>536351.3586514252</v>
+        <v>536351.358651425</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536351.3586514252</v>
+        <v>536351.3586514251</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367871.6011951421</v>
+        <v>367871.6011951422</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367871.601195142</v>
+        <v>367871.6011951421</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>367871.601195142</v>
+        <v>367871.6011951422</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070946</v>
+        <v>575677.5082070944</v>
       </c>
       <c r="C2" t="n">
-        <v>575677.5082070944</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="D2" t="n">
         <v>575677.5082070945</v>
@@ -26325,10 +26325,10 @@
         <v>294398.8102415786</v>
       </c>
       <c r="F2" t="n">
+        <v>294398.8102415786</v>
+      </c>
+      <c r="G2" t="n">
         <v>294398.8102415787</v>
-      </c>
-      <c r="G2" t="n">
-        <v>294398.8102415788</v>
       </c>
       <c r="H2" t="n">
         <v>294398.8102415787</v>
@@ -26337,22 +26337,22 @@
         <v>388348.0869450182</v>
       </c>
       <c r="J2" t="n">
+        <v>388348.0869450183</v>
+      </c>
+      <c r="K2" t="n">
         <v>388348.0869450181</v>
       </c>
-      <c r="K2" t="n">
-        <v>388348.0869450183</v>
-      </c>
       <c r="L2" t="n">
-        <v>388348.0869450181</v>
+        <v>388348.086945018</v>
       </c>
       <c r="M2" t="n">
-        <v>294398.8102415787</v>
+        <v>294398.8102415788</v>
       </c>
       <c r="N2" t="n">
-        <v>294398.8102415787</v>
+        <v>294398.8102415788</v>
       </c>
       <c r="O2" t="n">
-        <v>294398.8102415787</v>
+        <v>294398.8102415788</v>
       </c>
       <c r="P2" t="n">
         <v>294398.8102415787</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540519.1432189248</v>
+        <v>540519.1432189249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59314.67172075347</v>
+        <v>59314.67172075343</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29582.14604844207</v>
+        <v>29582.14604844191</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>18569.37197683785</v>
       </c>
       <c r="F4" t="n">
-        <v>18569.37197683785</v>
+        <v>18569.37197683784</v>
       </c>
       <c r="G4" t="n">
         <v>18569.37197683785</v>
@@ -26438,28 +26438,28 @@
         <v>18569.37197683785</v>
       </c>
       <c r="I4" t="n">
+        <v>75664.09489948465</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75664.09489948461</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75664.09489948464</v>
+      </c>
+      <c r="L4" t="n">
         <v>75664.09489948463</v>
       </c>
-      <c r="J4" t="n">
-        <v>75664.09489948463</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75664.09489948465</v>
-      </c>
-      <c r="L4" t="n">
-        <v>75664.09489948461</v>
-      </c>
       <c r="M4" t="n">
-        <v>18569.37197683787</v>
+        <v>18569.37197683792</v>
       </c>
       <c r="N4" t="n">
-        <v>18569.37197683787</v>
+        <v>18569.37197683791</v>
       </c>
       <c r="O4" t="n">
-        <v>18569.37197683785</v>
+        <v>18569.37197683788</v>
       </c>
       <c r="P4" t="n">
-        <v>18569.37197683785</v>
+        <v>18569.37197683791</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957393</v>
       </c>
       <c r="F5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957393</v>
       </c>
       <c r="G5" t="n">
         <v>32676.91371957394</v>
@@ -26508,10 +26508,10 @@
         <v>32676.91371957395</v>
       </c>
       <c r="O5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957395</v>
       </c>
       <c r="P5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957395</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145720.6581135154</v>
+        <v>145716.3285457288</v>
       </c>
       <c r="C6" t="n">
-        <v>145720.6581135152</v>
+        <v>145716.3285457289</v>
       </c>
       <c r="D6" t="n">
-        <v>145720.6581135153</v>
+        <v>145716.3285457289</v>
       </c>
       <c r="E6" t="n">
-        <v>-297366.6186737579</v>
+        <v>-298249.9441726867</v>
       </c>
       <c r="F6" t="n">
-        <v>243152.5245451669</v>
+        <v>242269.1990462382</v>
       </c>
       <c r="G6" t="n">
-        <v>243152.524545167</v>
+        <v>242269.1990462383</v>
       </c>
       <c r="H6" t="n">
-        <v>243152.5245451669</v>
+        <v>242269.1990462383</v>
       </c>
       <c r="I6" t="n">
-        <v>207130.7396416275</v>
+        <v>206541.0056323971</v>
       </c>
       <c r="J6" t="n">
-        <v>266445.4113623809</v>
+        <v>265855.6773531507</v>
       </c>
       <c r="K6" t="n">
-        <v>266445.411362381</v>
+        <v>265855.6773531505</v>
       </c>
       <c r="L6" t="n">
-        <v>266445.411362381</v>
+        <v>265855.6773531504</v>
       </c>
       <c r="M6" t="n">
-        <v>213570.3784967248</v>
+        <v>212687.0529977965</v>
       </c>
       <c r="N6" t="n">
-        <v>243152.5245451669</v>
+        <v>242269.1990462384</v>
       </c>
       <c r="O6" t="n">
-        <v>243152.5245451669</v>
+        <v>242269.1990462384</v>
       </c>
       <c r="P6" t="n">
-        <v>243152.5245451669</v>
+        <v>242269.1990462382</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="F3" t="n">
         <v>545.7747141827597</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893053</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F4" t="n">
         <v>341.7602787893055</v>
@@ -26822,16 +26822,16 @@
         <v>564.8140117429024</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="O4" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="P4" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>223.053732953597</v>
+        <v>223.0537329535969</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>118.7065458357092</v>
+        <v>118.7065458357085</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,22 +31758,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I11" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J11" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K11" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L11" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M11" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N11" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O11" t="n">
         <v>369.6759773839615</v>
@@ -31788,10 +31788,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S11" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T11" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U11" t="n">
         <v>0.1755255362195808</v>
@@ -31837,13 +31837,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I12" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K12" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L12" t="n">
         <v>254.8922379775237</v>
@@ -31852,10 +31852,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O12" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P12" t="n">
         <v>224.169240623481</v>
@@ -31864,16 +31864,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R12" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S12" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T12" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H13" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I13" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J13" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K13" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L13" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M13" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N13" t="n">
         <v>150.6069797350557</v>
@@ -31940,19 +31940,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R13" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S13" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T13" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K11" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L11" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M11" t="n">
-        <v>235.5343022987288</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N11" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O11" t="n">
         <v>220.1121399598651</v>
@@ -35430,7 +35430,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>225.1682475921461</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K12" t="n">
-        <v>99.96709912012567</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L12" t="n">
-        <v>164.8318911206055</v>
+        <v>171.31143246351</v>
       </c>
       <c r="M12" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N12" t="n">
-        <v>226.427190529525</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O12" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P12" t="n">
-        <v>137.0858758041663</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.86304761366178</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R12" t="n">
-        <v>49.20879576277396</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.50731502291176</v>
       </c>
       <c r="K13" t="n">
-        <v>30.48565837367109</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L13" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M13" t="n">
-        <v>63.97354201853737</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N13" t="n">
-        <v>317.2200934617724</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O13" t="n">
-        <v>303.4581717684484</v>
+        <v>97.69590845052257</v>
       </c>
       <c r="P13" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866767</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.46623246110843</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K15" t="n">
-        <v>166.4484739850545</v>
+        <v>155.6554362258038</v>
       </c>
       <c r="L15" t="n">
         <v>164.8318911206056</v>
       </c>
       <c r="M15" t="n">
-        <v>341.7602787893055</v>
+        <v>205.0600971802921</v>
       </c>
       <c r="N15" t="n">
         <v>219.9476491866208</v>
@@ -35749,7 +35749,7 @@
         <v>58.86304761366186</v>
       </c>
       <c r="R15" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K16" t="n">
-        <v>88.17638508377117</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L16" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M16" t="n">
-        <v>341.7602787893055</v>
+        <v>93.86403038050283</v>
       </c>
       <c r="N16" t="n">
-        <v>67.61137583265415</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O16" t="n">
-        <v>303.4581717684486</v>
+        <v>49.11317223767186</v>
       </c>
       <c r="P16" t="n">
         <v>240.1196065885718</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>85.8687458517492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>164.8318911206056</v>
       </c>
       <c r="M18" t="n">
-        <v>341.7602787893055</v>
+        <v>205.0600971802921</v>
       </c>
       <c r="N18" t="n">
         <v>219.9476491866208</v>
       </c>
       <c r="O18" t="n">
-        <v>253.1017491861546</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P18" t="n">
         <v>137.0858758041664</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.86304761366186</v>
+        <v>311.253399850378</v>
       </c>
       <c r="R18" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K19" t="n">
-        <v>30.48565837367113</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L19" t="n">
         <v>312.1068009817717</v>
@@ -36056,13 +36056,13 @@
         <v>67.61137583265415</v>
       </c>
       <c r="O19" t="n">
-        <v>275.2801526267993</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P19" t="n">
-        <v>240.1196065885718</v>
+        <v>91.78274277810212</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>136.0354271694067</v>
       </c>
       <c r="L20" t="n">
-        <v>192.9924059816528</v>
+        <v>192.9924059816525</v>
       </c>
       <c r="M20" t="n">
         <v>235.534302298729</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>225.1682475921462</v>
+        <v>28.46623246110843</v>
       </c>
       <c r="K21" t="n">
         <v>99.96709912012575</v>
@@ -36211,7 +36211,7 @@
         <v>205.0600971802921</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4271905295252</v>
+        <v>219.9476491866208</v>
       </c>
       <c r="O21" t="n">
         <v>186.6203743212259</v>
@@ -36220,10 +36220,10 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.86304761366186</v>
+        <v>311.253399850378</v>
       </c>
       <c r="R21" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K22" t="n">
-        <v>30.48565837367113</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L22" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M22" t="n">
-        <v>131.4153672220452</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N22" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O22" t="n">
-        <v>303.4581717684486</v>
+        <v>97.69590845052279</v>
       </c>
       <c r="P22" t="n">
-        <v>240.1196065885718</v>
+        <v>29.50936781866768</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>332.3297627225473</v>
+        <v>184.39036600542</v>
       </c>
       <c r="K23" t="n">
         <v>136.0354271694067</v>
@@ -36369,16 +36369,16 @@
         <v>235.534302298729</v>
       </c>
       <c r="N23" t="n">
-        <v>430.3651013793607</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="O23" t="n">
-        <v>220.1121399598652</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="P23" t="n">
         <v>165.2084467002751</v>
       </c>
       <c r="Q23" t="n">
-        <v>423.6474776289626</v>
+        <v>92.43609219951131</v>
       </c>
       <c r="R23" t="n">
         <v>100.2102149795824</v>
@@ -36439,10 +36439,10 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K24" t="n">
-        <v>512.5328688597484</v>
+        <v>283.4093911950019</v>
       </c>
       <c r="L24" t="n">
-        <v>564.8140117429024</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M24" t="n">
         <v>205.0600971802921</v>
@@ -36451,16 +36451,16 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O24" t="n">
-        <v>263.7546850780691</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P24" t="n">
-        <v>137.0858758041664</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.86304761366186</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R24" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,19 +36606,19 @@
         <v>235.534302298729</v>
       </c>
       <c r="N26" t="n">
-        <v>564.8140117429024</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O26" t="n">
         <v>220.1121399598652</v>
       </c>
       <c r="P26" t="n">
-        <v>165.2084467002751</v>
+        <v>353.1987863986649</v>
       </c>
       <c r="Q26" t="n">
-        <v>389.4087822450031</v>
+        <v>423.6474776289626</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.46623246110843</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K27" t="n">
-        <v>380.4295420095139</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L27" t="n">
-        <v>164.8318911206056</v>
+        <v>314.227753631821</v>
       </c>
       <c r="M27" t="n">
         <v>205.0600971802921</v>
@@ -36688,13 +36688,13 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O27" t="n">
-        <v>564.8140117429024</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P27" t="n">
-        <v>564.8140117429024</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.86304761366186</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R27" t="n">
         <v>49.20879576277399</v>
@@ -36834,16 +36834,16 @@
         <v>332.3297627225473</v>
       </c>
       <c r="K29" t="n">
-        <v>136.0354271694067</v>
+        <v>324.0257668677968</v>
       </c>
       <c r="L29" t="n">
-        <v>389.7548810475624</v>
+        <v>192.9924059816525</v>
       </c>
       <c r="M29" t="n">
         <v>235.534302298729</v>
       </c>
       <c r="N29" t="n">
-        <v>564.8140117429024</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O29" t="n">
         <v>220.1121399598652</v>
@@ -36852,7 +36852,7 @@
         <v>165.2084467002751</v>
       </c>
       <c r="Q29" t="n">
-        <v>92.43609219951131</v>
+        <v>423.6474776289626</v>
       </c>
       <c r="R29" t="n">
         <v>100.2102149795824</v>
@@ -36916,7 +36916,7 @@
         <v>99.96709912012575</v>
       </c>
       <c r="L30" t="n">
-        <v>564.8140117429024</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M30" t="n">
         <v>205.0600971802921</v>
@@ -36925,10 +36925,10 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O30" t="n">
-        <v>186.6203743212259</v>
+        <v>320.8538706333281</v>
       </c>
       <c r="P30" t="n">
-        <v>299.0653874327079</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q30" t="n">
         <v>386.5836164815864</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>332.3297627225473</v>
+        <v>68.53904305411223</v>
       </c>
       <c r="K32" t="n">
-        <v>136.0354271694067</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="L32" t="n">
-        <v>564.8140117429024</v>
+        <v>192.9924059816525</v>
       </c>
       <c r="M32" t="n">
         <v>235.534302298729</v>
       </c>
       <c r="N32" t="n">
-        <v>489.9650960271445</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O32" t="n">
-        <v>220.1121399598652</v>
+        <v>274.930650119601</v>
       </c>
       <c r="P32" t="n">
-        <v>165.2084467002751</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q32" t="n">
         <v>92.43609219951131</v>
@@ -37150,28 +37150,28 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K33" t="n">
-        <v>99.96709912012575</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L33" t="n">
-        <v>399.1026108832506</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M33" t="n">
-        <v>564.8140117429024</v>
+        <v>205.0600971802921</v>
       </c>
       <c r="N33" t="n">
-        <v>564.8140117429024</v>
+        <v>219.9476491866208</v>
       </c>
       <c r="O33" t="n">
         <v>186.6203743212259</v>
       </c>
       <c r="P33" t="n">
-        <v>137.0858758041664</v>
+        <v>286.481738315382</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.86304761366186</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>99.96709912012575</v>
       </c>
       <c r="L36" t="n">
-        <v>164.8318911206056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="M36" t="n">
         <v>205.0600971802921</v>
@@ -37399,16 +37399,16 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O36" t="n">
-        <v>341.7602787893056</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P36" t="n">
-        <v>234.3363235728032</v>
+        <v>163.3390446094092</v>
       </c>
       <c r="Q36" t="n">
         <v>58.86304761366186</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>39.50731502291178</v>
+        <v>0.265327202644491</v>
       </c>
       <c r="K37" t="n">
-        <v>197.0059338713291</v>
+        <v>30.48565837367113</v>
       </c>
       <c r="L37" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M37" t="n">
-        <v>93.86403038050351</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N37" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O37" t="n">
-        <v>49.11317223767186</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P37" t="n">
-        <v>240.1196065885718</v>
+        <v>29.50936781866768</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>28.46623246110843</v>
       </c>
       <c r="K39" t="n">
-        <v>147.683048371703</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="L39" t="n">
         <v>164.8318911206056</v>
@@ -37639,7 +37639,7 @@
         <v>186.6203743212259</v>
       </c>
       <c r="P39" t="n">
-        <v>341.7602787893056</v>
+        <v>147.6830483717033</v>
       </c>
       <c r="Q39" t="n">
         <v>58.86304761366186</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>39.50731502291178</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>159.719924232431</v>
+        <v>30.75098557631562</v>
       </c>
       <c r="L40" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N40" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O40" t="n">
-        <v>49.11317223767186</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P40" t="n">
         <v>29.50936781866768</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>192.9924059816525</v>
       </c>
       <c r="M41" t="n">
-        <v>235.5343022987293</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N41" t="n">
         <v>242.3747616809707</v>
@@ -37861,13 +37861,13 @@
         <v>28.46623246110843</v>
       </c>
       <c r="K42" t="n">
-        <v>99.96709912012575</v>
+        <v>303.1486555940687</v>
       </c>
       <c r="L42" t="n">
-        <v>280.5220617483082</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M42" t="n">
-        <v>341.7602787893055</v>
+        <v>205.0600971802921</v>
       </c>
       <c r="N42" t="n">
         <v>219.9476491866208</v>
@@ -37882,7 +37882,7 @@
         <v>58.86304761366186</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>197.0059338713291</v>
+        <v>30.75098557631562</v>
       </c>
       <c r="L43" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M43" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N43" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O43" t="n">
-        <v>49.11317223767186</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P43" t="n">
-        <v>31.73067320268099</v>
+        <v>29.50936781866768</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K45" t="n">
-        <v>155.6554362258041</v>
+        <v>99.96709912012575</v>
       </c>
       <c r="L45" t="n">
-        <v>164.8318911206056</v>
+        <v>171.3114324635107</v>
       </c>
       <c r="M45" t="n">
         <v>205.0600971802921</v>
@@ -38119,7 +38119,7 @@
         <v>58.86304761366186</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.50731502291178</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>197.0059338713291</v>
+        <v>30.48565837367113</v>
       </c>
       <c r="L46" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M46" t="n">
-        <v>93.86403038050305</v>
+        <v>341.7602787893057</v>
       </c>
       <c r="N46" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O46" t="n">
-        <v>49.11317223767186</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P46" t="n">
-        <v>240.1196065885718</v>
+        <v>29.77469502131218</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
